--- a/docs/excel/TTiger.xlsx
+++ b/docs/excel/TTiger.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
